--- a/myCode/draw_all/code/tools/land use group.xlsx
+++ b/myCode/draw_all/code/tools/land use group.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\draw_all\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\draw_all\code\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A368F24C-37BD-44FD-97BF-551443CC8632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A38258-F613-4788-976B-FE94493E2A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4400C79-A7FB-4EEA-8538-99FB0025AEA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
   <si>
     <t>lu_group</t>
   </si>
@@ -131,12 +131,6 @@
     <t>Tropical stone fruit</t>
   </si>
   <si>
-    <t>Unallocated - modified</t>
-  </si>
-  <si>
-    <t>Unallocated - natural</t>
-  </si>
-  <si>
     <t>Vegetables</t>
   </si>
   <si>
@@ -164,12 +158,6 @@
     <t>Carbon Plantings (Block)</t>
   </si>
   <si>
-    <t>Sheep Carbon Plantings</t>
-  </si>
-  <si>
-    <t>Beef Carbon Plantings</t>
-  </si>
-  <si>
     <t>BECCS</t>
   </si>
   <si>
@@ -177,6 +165,39 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>Asparagopsis taxiformis</t>
+  </si>
+  <si>
+    <t>AgTech EI</t>
+  </si>
+  <si>
+    <t>Agricultural management</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>Beef Carbon Plantings (Belt)</t>
+  </si>
+  <si>
+    <t>Deforestation</t>
+  </si>
+  <si>
+    <t>Ecological Grazing</t>
+  </si>
+  <si>
+    <t>Precision Agriculture</t>
+  </si>
+  <si>
+    <t>Savanna Burning</t>
+  </si>
+  <si>
+    <t>Sheep Carbon Plantings (Belt)</t>
+  </si>
+  <si>
+    <t>ag_non_ag_group</t>
   </si>
 </sst>
 </file>
@@ -548,51 +569,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45253D10-012B-4990-AE20-6217F11536E9}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -603,10 +630,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -617,10 +647,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -631,10 +664,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -645,10 +681,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -659,10 +698,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -673,10 +715,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -687,10 +732,13 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -701,10 +749,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -715,10 +766,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -729,10 +783,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -743,10 +800,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -757,10 +817,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -771,10 +834,13 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -785,10 +851,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -799,10 +868,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -813,10 +885,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -827,10 +902,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -841,10 +919,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -855,10 +936,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -869,10 +953,13 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -883,10 +970,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -897,182 +987,291 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>107</v>
       </c>
       <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="D39" t="s">
-        <v>6</v>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/myCode/draw_all/code/tools/land use group.xlsx
+++ b/myCode/draw_all/code/tools/land use group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\draw_all\code\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A38258-F613-4788-976B-FE94493E2A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A4273E-B75A-41C3-B1BB-7B2E3F07B10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4400C79-A7FB-4EEA-8538-99FB0025AEA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
   <si>
     <t>lu_group</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>ag_non_ag_group</t>
+  </si>
+  <si>
+    <t>Biochar</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45253D10-012B-4990-AE20-6217F11536E9}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,10 +1266,21 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
       <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>46</v>
       </c>
     </row>

--- a/myCode/draw_all/code/tools/land use group.xlsx
+++ b/myCode/draw_all/code/tools/land use group.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\draw_all\code\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\draw_all\code\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A4273E-B75A-41C3-B1BB-7B2E3F07B10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B4541-29F4-4995-A9F1-81450DAE5961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4400C79-A7FB-4EEA-8538-99FB0025AEA2}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="29130" windowHeight="14565" xr2:uid="{F4400C79-A7FB-4EEA-8538-99FB0025AEA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
   <si>
     <t>lu_group</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Beef Carbon Plantings (Belt)</t>
   </si>
   <si>
-    <t>Deforestation</t>
-  </si>
-  <si>
     <t>Ecological Grazing</t>
   </si>
   <si>
@@ -201,6 +198,18 @@
   </si>
   <si>
     <t>Biochar</t>
+  </si>
+  <si>
+    <t>Livestock natural to unallocated natural</t>
+  </si>
+  <si>
+    <t>Livestock natural to modified</t>
+  </si>
+  <si>
+    <t>Unallocated natural to livestock natural</t>
+  </si>
+  <si>
+    <t>Unallocated natural to modified</t>
   </si>
 </sst>
 </file>
@@ -572,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45253D10-012B-4990-AE20-6217F11536E9}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1173,7 +1182,7 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -1226,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
         <v>45</v>
@@ -1237,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
@@ -1248,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
@@ -1270,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
         <v>45</v>
@@ -1278,9 +1287,33 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
         <v>46</v>
       </c>
     </row>

--- a/myCode/draw_all/code/tools/land use group.xlsx
+++ b/myCode/draw_all/code/tools/land use group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\draw_all\code\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98B4541-29F4-4995-A9F1-81450DAE5961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2177765D-6162-494C-BAD6-D21068BA97A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="29130" windowHeight="14565" xr2:uid="{F4400C79-A7FB-4EEA-8538-99FB0025AEA2}"/>
+    <workbookView xWindow="14205" yWindow="4920" windowWidth="21195" windowHeight="14565" xr2:uid="{F4400C79-A7FB-4EEA-8538-99FB0025AEA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="61">
   <si>
     <t>lu_group</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Unallocated natural to modified</t>
+  </si>
+  <si>
+    <t>Destocked - natural land</t>
+  </si>
+  <si>
+    <t>HIR - Beef</t>
+  </si>
+  <si>
+    <t>HIR - Sheep</t>
   </si>
 </sst>
 </file>
@@ -581,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45253D10-012B-4990-AE20-6217F11536E9}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,21 +1230,24 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>45</v>
@@ -1243,10 +1255,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
@@ -1254,10 +1266,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
@@ -1265,10 +1277,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
         <v>45</v>
@@ -1276,44 +1288,77 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7</v>
+      </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E52" t="s">
         <v>46</v>
       </c>
     </row>
